--- a/Py/記録表.xlsx
+++ b/Py/記録表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AD_Shot\Py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633AD9DA-CD32-45B0-A197-E670123E64B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7AE0ED-A6C8-44C5-A89D-B4F73EAB9822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{5000F836-9C49-4542-B7AF-11871A8B3B9D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{5000F836-9C49-4542-B7AF-11871A8B3B9D}"/>
   </bookViews>
   <sheets>
     <sheet name="dữ liệu cần nhập " sheetId="1" r:id="rId1"/>
@@ -1150,13 +1150,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -1165,32 +1177,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1213,17 +1201,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1548,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BE96AB-C28E-4019-94C6-7AC38939317E}">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
@@ -3883,7 +3883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCDAAC2-762B-435F-9823-EF164DBBE460}">
   <dimension ref="B3:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -6756,39 +6756,39 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="46" t="s">
+      <c r="E3" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="35" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="46" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
@@ -6801,379 +6801,398 @@
       <c r="I4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="30"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="9">
         <v>75</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="50">
         <v>12</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="38">
         <v>180</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="38">
         <v>20</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="46">
         <v>1300</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="51">
         <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="32"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="5">
         <v>88</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="32"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="32"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="5">
         <v>106</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="32"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="32"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="5">
         <v>120</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="32"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="33"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="10">
         <v>150</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="33"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="35">
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="43">
-        <v>13</v>
-      </c>
-      <c r="F10" s="34">
+      <c r="E10" s="39">
+        <v>13</v>
+      </c>
+      <c r="F10" s="35">
         <v>30</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="51" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="49">
         <v>1900</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="52" t="s">
+      <c r="K10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="51">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.45" customHeight="1">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="32"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="1:12" ht="14.45" customHeight="1">
-      <c r="B12" s="32"/>
-      <c r="C12" s="34">
+      <c r="B12" s="36"/>
+      <c r="C12" s="35">
         <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="32"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="1:12" ht="14.45" customHeight="1">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="32"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="1:12" ht="14.45" customHeight="1">
-      <c r="B14" s="32"/>
-      <c r="C14" s="34">
+      <c r="B14" s="36"/>
+      <c r="C14" s="35">
         <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="32"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="1:12" ht="14.45" customHeight="1">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="32"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="1:12" ht="14.45" customHeight="1">
-      <c r="B16" s="32"/>
-      <c r="C16" s="34">
+      <c r="B16" s="36"/>
+      <c r="C16" s="35">
         <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="32"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="2:12" ht="14.45" customHeight="1">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="32"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="2:12" ht="14.45" customHeight="1">
-      <c r="B18" s="32"/>
-      <c r="C18" s="34">
+      <c r="B18" s="36"/>
+      <c r="C18" s="35">
         <v>32</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="32"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="2:12" ht="14.45" customHeight="1">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="32"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="2:12" ht="14.45" customHeight="1">
-      <c r="B20" s="32"/>
-      <c r="C20" s="34">
+      <c r="B20" s="36"/>
+      <c r="C20" s="35">
         <v>40</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="32"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="2:12" ht="14.45" customHeight="1">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="32"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="36"/>
     </row>
     <row r="22" spans="2:12" ht="14.45" customHeight="1">
-      <c r="B22" s="32"/>
-      <c r="C22" s="34">
+      <c r="B22" s="36"/>
+      <c r="C22" s="35">
         <v>50</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="32"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="36"/>
     </row>
     <row r="23" spans="2:12" ht="14.45" customHeight="1">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="32"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="36"/>
     </row>
     <row r="24" spans="2:12" ht="14.45" customHeight="1">
-      <c r="B24" s="32"/>
-      <c r="C24" s="34">
+      <c r="B24" s="36"/>
+      <c r="C24" s="35">
         <v>63</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="32"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="36"/>
     </row>
     <row r="25" spans="2:12" ht="14.45" customHeight="1">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="33"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="J10:J25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="L10:L25"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="K10:K25"/>
     <mergeCell ref="H10:H25"/>
     <mergeCell ref="G10:G25"/>
@@ -7190,25 +7209,6 @@
     <mergeCell ref="B10:B25"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="L10:L25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="J10:J25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7239,10 +7239,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1">
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="49"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="54" t="s">
         <v>128</v>
       </c>
@@ -7697,10 +7697,10 @@
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="27" customHeight="1">
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="49"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="54" t="s">
         <v>128</v>
       </c>
